--- a/ACG/ACG/Stage01.xlsx
+++ b/ACG/ACG/Stage01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\GetHub\Git\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,1967 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="290">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -2400,7 +440,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CF9" sqref="CF9"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3084,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -5432,38 +3472,38 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C2:CV2 A1:CV1 A2:AX10 K9:CU10 K3:CV9">
-    <cfRule type="cellIs" dxfId="289" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:CV1 AL2:AL5 AY2:CV10">
-    <cfRule type="cellIs" dxfId="286" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="283" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ACG/ACG/Stage01.xlsx
+++ b/ACG/ACG/Stage01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\GetHub\Git\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,12 +42,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -79,18 +91,759 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="115">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -440,7 +1193,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="CD19" sqref="CD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -828,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA2" s="1">
         <v>0</v>
@@ -1127,10 +1880,10 @@
         <v>2</v>
       </c>
       <c r="Y3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="1">
         <v>0</v>
@@ -1253,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="BO3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BP3" s="1">
         <v>0</v>
@@ -1289,28 +2042,28 @@
         <v>0</v>
       </c>
       <c r="CA3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB3" s="1">
         <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG3" s="1">
         <v>0</v>
       </c>
       <c r="CH3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CI3" s="1">
         <v>0</v>
@@ -1349,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="CU3" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CV3" s="1">
         <v>0</v>
@@ -1558,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="BP4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR4" s="1">
         <v>0</v>
@@ -1689,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -1817,8 +2570,8 @@
       <c r="BA5" s="1">
         <v>0</v>
       </c>
-      <c r="BB5" s="1">
-        <v>0</v>
+      <c r="BB5" s="2">
+        <v>4</v>
       </c>
       <c r="BC5" s="1">
         <v>0</v>
@@ -2494,28 +3247,28 @@
         <v>1</v>
       </c>
       <c r="BZ7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CC7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CD7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CE7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CF7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CG7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CH7" s="1">
         <v>1</v>
@@ -2685,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AP8" s="1">
         <v>0</v>
@@ -2802,22 +3555,22 @@
         <v>1</v>
       </c>
       <c r="CB8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CC8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CD8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CE8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CF8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CG8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CH8" s="1">
         <v>1</v>
@@ -2843,8 +3596,8 @@
       <c r="CO8" s="1">
         <v>0</v>
       </c>
-      <c r="CP8" s="1">
-        <v>0</v>
+      <c r="CP8" s="3">
+        <v>9</v>
       </c>
       <c r="CQ8" s="1">
         <v>0</v>
@@ -3023,10 +3776,10 @@
         <v>1</v>
       </c>
       <c r="BA9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="1">
         <v>1</v>
@@ -3110,10 +3863,10 @@
         <v>1</v>
       </c>
       <c r="CD9" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="CE9" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="CF9" s="1">
         <v>1</v>
@@ -3325,10 +4078,10 @@
         <v>1</v>
       </c>
       <c r="BA10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="1">
         <v>1</v>
@@ -3472,38 +4225,38 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C2:CV2 A1:CV1 A2:AX10 K9:CU10 K3:CV9">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:CV1 AL2:AL5 AY2:CV10">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ACG/ACG/Stage01.xlsx
+++ b/ACG/ACG/Stage01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate2\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,7 +108,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -134,6 +141,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -210,34 +238,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
@@ -281,615 +281,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1193,12 +584,13 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CD19" sqref="CD19"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="50" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="50" width="2.5" bestFit="1" customWidth="1"/>
     <col min="51" max="100" width="2.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3922,37 +3314,37 @@
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -4224,40 +3616,45 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C2:CV2 A1:CV1 A2:AX10 K9:CU10 K3:CV9">
-    <cfRule type="cellIs" dxfId="114" priority="11" operator="equal">
+  <conditionalFormatting sqref="C2:CV2 A1:CV1 K9:CU10 K3:CV9 A2:AX10">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:CV1 AL2:AL5 AY2:CV10">
-    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:CV10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ACG/ACG/Stage01.xlsx
+++ b/ACG/ACG/Stage01.xlsx
@@ -108,7 +108,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -168,21 +168,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -232,55 +218,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -584,7 +521,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="A10" sqref="A10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3314,37 +3251,37 @@
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -3617,43 +3554,43 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C2:CV2 A1:CV1 K9:CU10 K3:CV9 A2:AX10">
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:CV1 AL2:AL5 AY2:CV10">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ACG/ACG/Stage01.xlsx
+++ b/ACG/ACG/Stage01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate2\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -58,6 +58,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -91,7 +103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -104,22 +116,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -133,14 +151,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -168,7 +179,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -182,7 +207,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -196,7 +242,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -520,15 +573,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:K10"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AT7" sqref="AT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="50" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="100" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="32" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="50" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="55" max="87" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="89" max="100" width="2.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.15">
@@ -641,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="AK1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM1" s="1">
         <v>0</v>
@@ -910,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
         <v>0</v>
@@ -943,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="1">
         <v>0</v>
@@ -1206,13 +1270,13 @@
         <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="1">
         <v>0</v>
@@ -1245,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1335,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="BO3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="1">
         <v>0</v>
@@ -1371,28 +1435,28 @@
         <v>0</v>
       </c>
       <c r="CA3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CB3" s="1">
         <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG3" s="1">
         <v>0</v>
       </c>
       <c r="CH3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CI3" s="1">
         <v>0</v>
@@ -1431,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="CU3" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CV3" s="1">
         <v>0</v>
@@ -1547,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1559,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP4" s="1">
         <v>0</v>
@@ -1628,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="BL4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BM4" s="1">
         <v>0</v>
@@ -1771,100 +1835,100 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
         <v>2</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>0</v>
-      </c>
       <c r="AN5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5" s="1">
         <v>0</v>
@@ -1899,8 +1963,8 @@
       <c r="BA5" s="1">
         <v>0</v>
       </c>
-      <c r="BB5" s="2">
-        <v>4</v>
+      <c r="BB5" s="1">
+        <v>0</v>
       </c>
       <c r="BC5" s="1">
         <v>0</v>
@@ -1918,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="BH5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL5" s="1">
         <v>1</v>
@@ -1936,16 +2000,16 @@
         <v>1</v>
       </c>
       <c r="BN5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR5" s="1">
         <v>0</v>
@@ -1954,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="BT5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV5" s="1">
         <v>0</v>
@@ -2001,8 +2065,8 @@
       <c r="CI5" s="1">
         <v>0</v>
       </c>
-      <c r="CJ5" s="1">
-        <v>0</v>
+      <c r="CJ5" s="5">
+        <v>20</v>
       </c>
       <c r="CK5" s="1">
         <v>0</v>
@@ -2093,8 +2157,8 @@
       <c r="Q6" s="1">
         <v>0</v>
       </c>
-      <c r="R6" s="1">
-        <v>0</v>
+      <c r="R6" s="2">
+        <v>4</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -2157,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="AM6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN6" s="1">
         <v>0</v>
@@ -2220,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="BH6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI6" s="1">
         <v>0</v>
       </c>
       <c r="BJ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>0</v>
@@ -2244,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="BP6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR6" s="1">
         <v>0</v>
@@ -2256,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="BT6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>0</v>
@@ -2414,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
         <v>0</v>
@@ -2459,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN7" s="1">
         <v>0</v>
@@ -2477,13 +2541,13 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="1">
         <v>0</v>
@@ -2522,22 +2586,22 @@
         <v>0</v>
       </c>
       <c r="BH7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>0</v>
@@ -2546,10 +2610,10 @@
         <v>0</v>
       </c>
       <c r="BP7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR7" s="1">
         <v>0</v>
@@ -2558,55 +2622,55 @@
         <v>0</v>
       </c>
       <c r="BT7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB7" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CD7" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CE7" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CF7" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CG7" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CH7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK7" s="1">
         <v>0</v>
@@ -2701,34 +2765,34 @@
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
         <v>0</v>
@@ -2761,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="AM8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN8" s="1">
         <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="1">
         <v>0</v>
@@ -2779,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="1">
         <v>0</v>
@@ -2818,28 +2882,28 @@
         <v>0</v>
       </c>
       <c r="BF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>0</v>
@@ -2848,10 +2912,10 @@
         <v>0</v>
       </c>
       <c r="BP8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR8" s="1">
         <v>0</v>
@@ -2860,55 +2924,55 @@
         <v>0</v>
       </c>
       <c r="BT8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB8" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CD8" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CE8" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CF8" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CG8" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CH8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK8" s="1">
         <v>0</v>
@@ -2925,8 +2989,8 @@
       <c r="CO8" s="1">
         <v>0</v>
       </c>
-      <c r="CP8" s="3">
-        <v>9</v>
+      <c r="CP8" s="1">
+        <v>0</v>
       </c>
       <c r="CQ8" s="1">
         <v>0</v>
@@ -2949,37 +3013,37 @@
     </row>
     <row r="9" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -2987,50 +3051,50 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
-        <v>1</v>
+      <c r="N9" s="4">
+        <v>15</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="1">
         <v>0</v>
@@ -3039,109 +3103,109 @@
         <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>15</v>
       </c>
       <c r="AH9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BC9" s="4">
+        <v>15</v>
       </c>
       <c r="BD9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>0</v>
@@ -3150,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="BP9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR9" s="1">
         <v>0</v>
@@ -3162,91 +3226,91 @@
         <v>0</v>
       </c>
       <c r="BT9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD9" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CE9" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CF9" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG9" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="CG9" s="3">
+        <v>9</v>
       </c>
       <c r="CH9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.15">
@@ -3284,10 +3348,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -3311,34 +3375,34 @@
         <v>1</v>
       </c>
       <c r="U10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="1">
         <v>1</v>
@@ -3386,16 +3450,16 @@
         <v>1</v>
       </c>
       <c r="AT10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="1">
         <v>1</v>
@@ -3434,22 +3498,22 @@
         <v>1</v>
       </c>
       <c r="BJ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>0</v>
       </c>
       <c r="BO10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP10" s="1">
         <v>1</v>
@@ -3458,10 +3522,10 @@
         <v>1</v>
       </c>
       <c r="BR10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="1">
         <v>1</v>
@@ -3473,10 +3537,10 @@
         <v>1</v>
       </c>
       <c r="BW10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY10" s="1">
         <v>1</v>
@@ -3515,83 +3579,78 @@
         <v>1</v>
       </c>
       <c r="CK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C2:CV2 A1:CV1 K9:CU10 K3:CV9 A2:AX10">
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+  <conditionalFormatting sqref="N1:N4 K1:K6 F3:AZ8 A9:AZ9 AZ4:BF9 BD4:BT10 A1:CV1 C2:CV2 K10:CV10 BA3:CV9 A2:AX10">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL1:CV1 AL2:AL5 AY2:CV10">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+  <conditionalFormatting sqref="AL2:AL5 BS10:BS12 AL10:AR10 AJ1:CV1 AT10:CV10 AS7:AS9 A9:AZ9">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
-      <formula>5</formula>
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>11</formula>
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ACG/ACG/Stage01.xlsx
+++ b/ACG/ACG/Stage01.xlsx
@@ -69,7 +69,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,105 +126,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -573,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AT7" sqref="AT7"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="CJ5" sqref="CJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2066,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CK5" s="1">
         <v>0</v>
@@ -3618,38 +3520,38 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N1:N4 K1:K6 F3:AZ8 A9:AZ9 AZ4:BF9 BD4:BT10 A1:CV1 C2:CV2 K10:CV10 BA3:CV9 A2:AX10">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AL5 BS10:BS12 AL10:AR10 AJ1:CV1 AT10:CV10 AS7:AS9 A9:AZ9">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ACG/ACG/Stage01.xlsx
+++ b/ACG/ACG/Stage01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Source\Repos\teamcreate\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15036" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,29 +475,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CJ5" sqref="CJ5"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="32" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="50" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="55" max="87" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="89" max="100" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="32" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="40" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="50" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="87" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="100" width="2.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -799,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1101,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1525,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AP4" s="1">
         <v>0</v>
@@ -1705,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -2007,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -2309,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -2611,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -2913,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -3215,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
